--- a/probability_and_reward.xlsx
+++ b/probability_and_reward.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\DP2017HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT\Documents\GitHub\DP2017HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12870"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="slow_prob" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
-  <si>
-    <t>current_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next|current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,38 +388,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -459,55 +459,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,38 +529,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -599,55 +599,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0</v>
